--- a/Project Score Sheet/Project Score Sheet.xlsx
+++ b/Project Score Sheet/Project Score Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\KCPM\KCPM-Reports\Project Score Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\KCPM-Reports\Project Score Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364737F0-9806-4DBC-93BA-9AB0FA381B22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5C95D-9E18-40BF-B1FB-BD57A69C8A03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thong tin Nhom" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>Hanh Tran</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>MSSV</t>
   </si>
@@ -300,6 +300,12 @@
   <si>
     <t>0933615558</t>
   </si>
+  <si>
+    <t>1712056@student.hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>1712730@student.hcmus.edu.vn</t>
+  </si>
 </sst>
 </file>
 
@@ -309,14 +315,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -324,7 +330,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -332,7 +338,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,7 +346,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -387,7 +393,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -605,6 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,56 +621,55 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Phần trăm" xfId="1" builtinId="5"/>
-    <cellStyle name="Siêu kết nối" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="46" builtinId="8"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1023,25 +1029,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="17" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6">
         <v>16</v>
@@ -1068,12 +1074,12 @@
         <v>889838522</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="15" t="s">
         <v>0</v>
@@ -1088,7 +1094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4">
         <v>1612593</v>
@@ -1099,11 +1105,11 @@
       <c r="D6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4">
         <v>1712018</v>
@@ -1118,7 +1124,7 @@
         <v>889838522</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4">
         <v>1712056</v>
@@ -1126,10 +1132,14 @@
       <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3">
+        <v>395280864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4">
         <v>1712730</v>
@@ -1137,10 +1147,12 @@
       <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -1149,6 +1161,8 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{7C729700-185C-47B2-ACFF-7EAFA1A419A9}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{35827A83-C21D-4A71-B0C0-5E8C63C8FACE}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{55A350F3-5771-4CAB-A30B-BF03781C1496}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{DBCB085B-27B5-4ED2-8FB5-846236BA9FA1}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{65C80960-038B-4462-A956-C4B9B1CAE741}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1157,26 +1171,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -1216,7 +1230,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="17" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -1236,15 +1250,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="17" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>3</v>
       </c>
       <c r="B5" s="19">
-        <v>1712730</v>
+        <v>1712056</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>56</v>
@@ -1256,26 +1270,46 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="18" t="s">
+    <row r="6" spans="1:6" s="17" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="E6" s="24">
-        <f>SUM(E3:E5)</f>
-        <v>0.75</v>
-      </c>
-      <c r="F6" s="24">
-        <f>SUM(F3:F5)</f>
-        <v>0.75</v>
+      <c r="B6" s="19">
+        <v>1712730</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="24">
+        <f>SUM(E3:E6)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
+        <f>SUM(F3:F6)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -1290,20 +1324,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="5"/>
-    <col min="4" max="4" width="23.26953125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5"/>
+    <col min="4" max="4" width="23.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1331,7 +1365,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1.1000000000000001</v>
       </c>
@@ -1349,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1.2</v>
       </c>
@@ -1366,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1.3</v>
       </c>
@@ -1384,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1.4</v>
       </c>
@@ -1402,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -1413,7 +1447,7 @@
       <c r="D7" s="28"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>2.1</v>
       </c>
@@ -1431,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -1449,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -1467,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="17" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="17" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2.4</v>
       </c>
@@ -1485,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -1496,7 +1530,7 @@
       <c r="D12" s="28"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>3.1</v>
       </c>
@@ -1514,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="17" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>3.2</v>
       </c>
@@ -1532,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>4</v>
       </c>
@@ -1543,7 +1577,7 @@
       <c r="D15" s="28"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" s="17" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>4.0999999999999996</v>
       </c>
@@ -1561,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="17" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>4.2</v>
       </c>
@@ -1579,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>4.3</v>
       </c>
@@ -1597,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>5</v>
       </c>
@@ -1608,7 +1642,7 @@
       <c r="D19" s="28"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" spans="1:5" s="17" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="17" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>5.0999999999999996</v>
       </c>
@@ -1619,13 +1653,13 @@
         <v>-1</v>
       </c>
       <c r="D20" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="19">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="17" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>5.2</v>
       </c>
@@ -1643,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="17" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>5.3</v>
       </c>
@@ -1661,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>5.4</v>
       </c>
@@ -1672,13 +1706,13 @@
         <v>-1</v>
       </c>
       <c r="D23" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="19">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>6</v>
       </c>
@@ -1689,7 +1723,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:5" s="17" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>6.1</v>
       </c>
@@ -1706,7 +1740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>7</v>
       </c>
@@ -1717,7 +1751,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:5" s="17" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>7.1</v>
       </c>
@@ -1734,24 +1768,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:5" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="9">
-        <v>-7</v>
+        <f>SUM(C2:C27)</f>
+        <v>-100</v>
       </c>
       <c r="D29" s="30">
         <f>SUM(D2:D21)/20</f>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E29" s="31">
         <f>MAX(0,10+SUM(E3:E21))</f>
@@ -1775,9 +1810,9 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1789,7 +1824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
